--- a/data/trans_orig/P79A10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Provincia-trans_orig.xlsx
@@ -922,19 +922,19 @@
         <v>14427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7182</v>
+        <v>6895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21566</v>
+        <v>21555</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.505984981270126</v>
+        <v>0.5059849812701261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.25186920850769</v>
+        <v>0.2418362539443964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7563398339091922</v>
+        <v>0.7559602202201727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -943,19 +943,19 @@
         <v>8835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5321</v>
+        <v>5270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11918</v>
+        <v>12072</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5904039682321928</v>
+        <v>0.590403968232193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3555844119801073</v>
+        <v>0.35216567384194</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7963981249132767</v>
+        <v>0.8066939124241672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -964,19 +964,19 @@
         <v>23263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15052</v>
+        <v>14379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30599</v>
+        <v>29834</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5350411368773773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3461975426493447</v>
+        <v>0.3307254323195584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7037806138562384</v>
+        <v>0.686193968398194</v>
       </c>
     </row>
     <row r="8">
@@ -993,19 +993,19 @@
         <v>14086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6947</v>
+        <v>6958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21331</v>
+        <v>21618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.494015018729874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2436601660908078</v>
+        <v>0.2440397797798264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7481307914923103</v>
+        <v>0.7581637460556035</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1014,19 +1014,19 @@
         <v>6130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3047</v>
+        <v>2893</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9644</v>
+        <v>9695</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4095960317678071</v>
+        <v>0.409596031767807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2036018750867235</v>
+        <v>0.1933060875758329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6444155880198926</v>
+        <v>0.6478343261580602</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1035,19 +1035,19 @@
         <v>20215</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12879</v>
+        <v>13644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28426</v>
+        <v>29099</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4649588631226227</v>
+        <v>0.4649588631226228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2962193861437618</v>
+        <v>0.3138060316018061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6538024573506552</v>
+        <v>0.6692745676804415</v>
       </c>
     </row>
     <row r="9">
@@ -1181,19 +1181,19 @@
         <v>4278</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1594</v>
+        <v>1497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7560</v>
+        <v>7557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4758386893483688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.177267238567615</v>
+        <v>0.1665180925287071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8408425057067406</v>
+        <v>0.8404872575118078</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>4713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7395</v>
+        <v>7481</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5241613106516312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1588970684161164</v>
+        <v>0.1590389979423404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8224791288608128</v>
+        <v>0.8319989491301332</v>
       </c>
     </row>
     <row r="12">
@@ -1359,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10218</v>
+        <v>9226</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3175670693692255</v>
+        <v>0.3175670693692254</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9443100438318315</v>
+        <v>0.8526334211266489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1377,19 +1377,19 @@
         <v>4450</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1804</v>
+        <v>1359</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7372</v>
+        <v>7069</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4787848934073283</v>
+        <v>0.4787848934073282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.194140082906222</v>
+        <v>0.146223608683663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7932093533214363</v>
+        <v>0.7606227662119907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1398,19 +1398,19 @@
         <v>7886</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3060</v>
+        <v>3162</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14346</v>
+        <v>14007</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3920536459850518</v>
+        <v>0.3920536459850517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1521320536895851</v>
+        <v>0.1571819563296717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7132032379364512</v>
+        <v>0.6963239020513565</v>
       </c>
     </row>
     <row r="14">
@@ -1427,16 +1427,16 @@
         <v>7385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1378</v>
+        <v>1595</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>10821</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6824329306307748</v>
+        <v>0.6824329306307747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1273703812318927</v>
+        <v>0.1473665788733512</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1448,19 +1448,19 @@
         <v>4844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1922</v>
+        <v>2225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7490</v>
+        <v>7935</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5212151065926718</v>
+        <v>0.5212151065926717</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2067906466785637</v>
+        <v>0.2393772337880093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8058599170937778</v>
+        <v>0.8537763913163378</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1469,19 +1469,19 @@
         <v>12229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5769</v>
+        <v>6108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17055</v>
+        <v>16953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6079463540149481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2867967620635489</v>
+        <v>0.3036760979486428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8478679463104152</v>
+        <v>0.8428180436703283</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         <v>1569</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>3166</v>
@@ -1616,7 +1616,7 @@
         <v>0.4955569532119015</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09772787554896813</v>
+        <v>0.07152226187159041</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2857</v>
+        <v>2940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5044430467880985</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9022721244510319</v>
+        <v>0.9284777381284096</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3124</v>
+        <v>2998</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2230214149602353</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8365346981912304</v>
+        <v>0.8025467744459858</v>
       </c>
     </row>
     <row r="20">
@@ -1871,7 +1871,7 @@
         <v>2902</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>611</v>
+        <v>737</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>3735</v>
@@ -1880,7 +1880,7 @@
         <v>0.7769785850397647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1634653018087678</v>
+        <v>0.1974532255540137</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1996,7 +1996,7 @@
         <v>7742</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5264</v>
+        <v>4602</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>9245</v>
@@ -2005,7 +2005,7 @@
         <v>0.8374174281514769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5694110550788154</v>
+        <v>0.4977850755214568</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2017,19 +2017,19 @@
         <v>10044</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6732</v>
+        <v>6937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12005</v>
+        <v>11935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7943443938140117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5324211050759163</v>
+        <v>0.5486107028415084</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9494930141490882</v>
+        <v>0.9439517189769843</v>
       </c>
     </row>
     <row r="23">
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3981</v>
+        <v>4643</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.162582571848523</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4305889449211846</v>
+        <v>0.5022149244785434</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2088,19 +2088,19 @@
         <v>2600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5912</v>
+        <v>5707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2056556061859883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05050698585091191</v>
+        <v>0.05604828102301573</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4675788949240834</v>
+        <v>0.4513892971584914</v>
       </c>
     </row>
     <row r="24">
@@ -2192,19 +2192,19 @@
         <v>103438</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>97528</v>
+        <v>97372</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105778</v>
+        <v>105794</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.971448227869971</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9159448990987221</v>
+        <v>0.9144812396678127</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9934276743765657</v>
+        <v>0.9935799773223745</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>130</v>
@@ -2213,19 +2213,19 @@
         <v>95640</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>91050</v>
+        <v>90930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98507</v>
+        <v>98557</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.956804540930963</v>
+        <v>0.9568045409309629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9108819708511867</v>
+        <v>0.9096782377005483</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9854814215200058</v>
+        <v>0.9859840411836617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>232</v>
@@ -2234,19 +2234,19 @@
         <v>199078</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>192551</v>
+        <v>193222</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202692</v>
+        <v>203296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9643576182207815</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9327374129174074</v>
+        <v>0.9359908900845255</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9818618039307256</v>
+        <v>0.9847917537578783</v>
       </c>
     </row>
     <row r="26">
@@ -2263,19 +2263,19 @@
         <v>3040</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8950</v>
+        <v>9106</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02855177213002901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006572325623434414</v>
+        <v>0.006420022677625559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08405510090127793</v>
+        <v>0.08551876033218724</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2284,19 +2284,19 @@
         <v>4318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1451</v>
+        <v>1401</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8908</v>
+        <v>9028</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04319545906903709</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01451857847999375</v>
+        <v>0.01401595881633837</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08911802914881324</v>
+        <v>0.09032176229945157</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2305,19 +2305,19 @@
         <v>7358</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3744</v>
+        <v>3140</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13885</v>
+        <v>13214</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03564238177921835</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01813819606927434</v>
+        <v>0.01520824624212187</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06726258708259214</v>
+        <v>0.06400910991547455</v>
       </c>
     </row>
     <row r="27">
@@ -2409,19 +2409,19 @@
         <v>127650</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113429</v>
+        <v>111155</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>138324</v>
+        <v>139101</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8099244944271486</v>
+        <v>0.8099244944271488</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7196930135808057</v>
+        <v>0.7052665717691223</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8776493823390542</v>
+        <v>0.8825819602673148</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>166</v>
@@ -2430,19 +2430,19 @@
         <v>120360</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>109460</v>
+        <v>109711</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128443</v>
+        <v>128303</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8303475713137558</v>
+        <v>0.8303475713137559</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7551531648356484</v>
+        <v>0.7568856540348119</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8861120418391141</v>
+        <v>0.8851486054343913</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>285</v>
@@ -2451,19 +2451,19 @@
         <v>248009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>227916</v>
+        <v>229952</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>261093</v>
+        <v>261883</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8197088769221691</v>
+        <v>0.819708876922169</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7532972638394984</v>
+        <v>0.7600265780192591</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.862950913996074</v>
+        <v>0.8655613211713549</v>
       </c>
     </row>
     <row r="29">
@@ -2480,19 +2480,19 @@
         <v>29957</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19283</v>
+        <v>18506</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44178</v>
+        <v>46452</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1900755055728512</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.122350617660946</v>
+        <v>0.1174180397326852</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2803069864191945</v>
+        <v>0.2947334282308774</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2501,19 +2501,19 @@
         <v>24591</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16508</v>
+        <v>16648</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35491</v>
+        <v>35240</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1696524286862442</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1138879581608854</v>
+        <v>0.1148513945656087</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2448468351643511</v>
+        <v>0.2431143459651882</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>49</v>
@@ -2522,19 +2522,19 @@
         <v>54549</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>41465</v>
+        <v>40675</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>74642</v>
+        <v>72606</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1802911230778308</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.137049086003926</v>
+        <v>0.1344386788286453</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.246702736160502</v>
+        <v>0.2399734219807409</v>
       </c>
     </row>
     <row r="30">
